--- a/JenkinTrigger.xlsx
+++ b/JenkinTrigger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mc93246\VC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FF056D-82BD-44D9-90D7-5D0E231B3EB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37196B36-0A40-404A-9E6C-DE913A14C458}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{40A40884-2F95-43B3-ABAE-A6BA30BD0E8D}"/>
   </bookViews>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0E6FE7-52C2-464F-A71D-89EA8028C803}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +576,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,7 +642,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">

--- a/JenkinTrigger.xlsx
+++ b/JenkinTrigger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mc93246\VC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37196B36-0A40-404A-9E6C-DE913A14C458}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D9F889-C1FD-467F-9BA1-EF63CA128B63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{40A40884-2F95-43B3-ABAE-A6BA30BD0E8D}"/>
   </bookViews>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0E6FE7-52C2-464F-A71D-89EA8028C803}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +576,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,7 +642,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,7 +774,7 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/JenkinTrigger.xlsx
+++ b/JenkinTrigger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mc93246\VC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D9F889-C1FD-467F-9BA1-EF63CA128B63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E936544-AC1D-495A-A91B-51A5C0154E74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{40A40884-2F95-43B3-ABAE-A6BA30BD0E8D}"/>
   </bookViews>
@@ -178,8 +178,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -195,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -203,12 +211,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,255 +550,256 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0E6FE7-52C2-464F-A71D-89EA8028C803}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>46</v>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
-        <v>46</v>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
-        <v>4</v>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -784,5 +810,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JenkinTrigger.xlsx
+++ b/JenkinTrigger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mc93246\VC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E936544-AC1D-495A-A91B-51A5C0154E74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5966A6A-4A84-4A72-A18E-CB145B9DD7C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{40A40884-2F95-43B3-ABAE-A6BA30BD0E8D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Market_event</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>US_AccountDelete</t>
+  </si>
+  <si>
+    <t>US market DCS Account Delete</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,14 +232,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0E6FE7-52C2-464F-A71D-89EA8028C803}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,7 +609,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,7 +620,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,7 +631,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,7 +774,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,12 +818,23 @@
         <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C22" xr:uid="{61CA73D3-DE5D-4432-8E7A-E9A306AEB1CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C23" xr:uid="{61CA73D3-DE5D-4432-8E7A-E9A306AEB1CF}">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
